--- a/Arduino/HL 9_5.xlsx
+++ b/Arduino/HL 9_5.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="7060" yWindow="180" windowWidth="17860" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ギザギザになっている要因</t>
     <rPh sb="10" eb="12">
@@ -232,6 +233,270 @@
     <rPh sb="0" eb="3">
       <t>ゲンザ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタック原因</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱の可能性高し</t>
+    <rPh sb="0" eb="7">
+      <t>ネt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱がこもる状況ではスタックまでの時間が早かった</t>
+    <rPh sb="0" eb="9">
+      <t>ネt</t>
+    </rPh>
+    <rPh sb="16" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タオルで包む</t>
+    <rPh sb="4" eb="6">
+      <t>クルm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何もなし</t>
+    <rPh sb="0" eb="4">
+      <t>ナニm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保冷剤を乗せる</t>
+    <rPh sb="0" eb="7">
+      <t>ホレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫に入れる</t>
+    <rPh sb="0" eb="7">
+      <t>レイゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在も稼働中</t>
+    <rPh sb="0" eb="6">
+      <t>ゲンザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定とします</t>
+    <rPh sb="0" eb="2">
+      <t>カクテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策</t>
+    <rPh sb="0" eb="2">
+      <t>タイサk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫に設置（電波届けば）</t>
+    <rPh sb="0" eb="6">
+      <t>レイゾ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>デンp</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不安なため実験次第</t>
+    <rPh sb="0" eb="5">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷却しきれるのかが問題</t>
+    <rPh sb="0" eb="2">
+      <t>レイキャk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケースに冷却フィン</t>
+    <rPh sb="4" eb="6">
+      <t>レイキャk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３０秒に一回の送信でオーバー（DST＝2.5s）</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４５秒に一度（dst=30s)で実験中</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジッケンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷凍庫</t>
+    <rPh sb="0" eb="3">
+      <t>レイトウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中継機</t>
+    <rPh sb="0" eb="3">
+      <t>チュウケイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットボタン追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル作り</t>
+    <rPh sb="5" eb="6">
+      <t>ヅク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置法</t>
+    <rPh sb="0" eb="3">
+      <t>セッチホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置場所</t>
+    <rPh sb="0" eb="4">
+      <t>セッチバショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/27　銀座１丁目　テスト</t>
+    <rPh sb="5" eb="7">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置基準の制定</t>
+    <rPh sb="0" eb="4">
+      <t>セッチキジュン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排熱の問題</t>
+    <rPh sb="0" eb="2">
+      <t>ハイネツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電池に直結</t>
+    <rPh sb="0" eb="2">
+      <t>デンチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中継機は物理的にリセットボタンの直上</t>
+    <rPh sb="0" eb="3">
+      <t>チュウケイキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョクジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度計</t>
+    <rPh sb="0" eb="3">
+      <t>オンドケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信機</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信機</t>
+    <rPh sb="0" eb="3">
+      <t>ジュシンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニター</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -303,12 +568,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -366,8 +634,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>425094</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>691794</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -759,13 +1027,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:K37"/>
+  <dimension ref="B19:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="19" spans="2:11">
       <c r="B19" s="2">
@@ -940,15 +1212,18 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
@@ -956,8 +1231,14 @@
       <c r="E34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
@@ -965,15 +1246,144 @@
       <c r="E35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="E36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="H36" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="E37" t="s">
         <v>23</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="H38" s="5">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="H39" s="6">
+        <v>42986.5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="F54" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="F55" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -986,4 +1396,41 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>